--- a/docs/field.xlsx
+++ b/docs/field.xlsx
@@ -1469,10 +1469,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s" s="4">
         <v>6</v>

--- a/docs/field.xlsx
+++ b/docs/field.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="field_item" sheetId="1" r:id="rId4"/>
+    <sheet name="field_skill" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -60,6 +61,78 @@
   </si>
   <si>
     <t>ARMOR03</t>
+  </si>
+  <si>
+    <t>SKILL001</t>
+  </si>
+  <si>
+    <t>かみつき</t>
+  </si>
+  <si>
+    <t>SKILL002</t>
+  </si>
+  <si>
+    <t>二段攻撃</t>
+  </si>
+  <si>
+    <t>SKILL003</t>
+  </si>
+  <si>
+    <t>魔弾</t>
+  </si>
+  <si>
+    <t>SKILL004</t>
+  </si>
+  <si>
+    <t>毒の粉</t>
+  </si>
+  <si>
+    <t>SKILL005</t>
+  </si>
+  <si>
+    <t>ヒーリング</t>
+  </si>
+  <si>
+    <t>SKILL006</t>
+  </si>
+  <si>
+    <t>力こぶし</t>
+  </si>
+  <si>
+    <t>SKILL007</t>
+  </si>
+  <si>
+    <t>子守歌</t>
+  </si>
+  <si>
+    <t>SKILL008</t>
+  </si>
+  <si>
+    <t>目つぶし</t>
+  </si>
+  <si>
+    <t>SKILL009</t>
+  </si>
+  <si>
+    <t>サイレント</t>
+  </si>
+  <si>
+    <t>SKILL010</t>
+  </si>
+  <si>
+    <t>パワーダウン</t>
+  </si>
+  <si>
+    <t>SKILL011</t>
+  </si>
+  <si>
+    <t>旋風斬り</t>
+  </si>
+  <si>
+    <t>SKILL012</t>
+  </si>
+  <si>
+    <t>三段攻撃</t>
   </si>
 </sst>
 </file>
@@ -69,11 +142,11 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="Verdana"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
     <font>
       <sz val="12"/>
@@ -99,11 +172,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -155,26 +223,35 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -254,53 +331,8 @@
         <a:cs typeface="ヒラギノ角ゴ ProN W3"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Blank">
       <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="129999"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -369,27 +401,6 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="104999"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
@@ -419,83 +430,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -566,12 +502,13 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -860,6 +797,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1141,12 +1079,13 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1430,18 +1369,18 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozenSplit"/>
+      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="256" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.35156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.17188" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.17188" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.17188" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.35156" style="1" customWidth="1"/>
+    <col min="7" max="256" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customHeight="1">
@@ -1485,197 +1424,520 @@
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <f t="shared" si="0" ref="A3:A12">ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>999</v>
-      </c>
-      <c r="D3" t="s" s="5">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>999</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>3</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>999</v>
-      </c>
-      <c r="D4" t="s" s="5">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>999</v>
+      </c>
+      <c r="D4" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6"/>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>999</v>
-      </c>
-      <c r="D5" t="s" s="5">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>999</v>
+      </c>
+      <c r="D5" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>999</v>
-      </c>
-      <c r="D6" t="s" s="5">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>999</v>
+      </c>
+      <c r="D6" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6"/>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>999</v>
-      </c>
-      <c r="D7" t="s" s="5">
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>999</v>
+      </c>
+      <c r="D7" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6"/>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>999</v>
-      </c>
-      <c r="D8" t="s" s="5">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>999</v>
+      </c>
+      <c r="D8" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>999</v>
-      </c>
-      <c r="D9" t="s" s="5">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>999</v>
+      </c>
+      <c r="D9" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6"/>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>999</v>
-      </c>
-      <c r="D10" t="s" s="5">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>999</v>
+      </c>
+      <c r="D10" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6"/>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="5">
-        <v>999</v>
-      </c>
-      <c r="C11" s="5">
-        <v>999</v>
-      </c>
-      <c r="D11" t="s" s="5">
+      <c r="B11" s="6">
+        <v>999</v>
+      </c>
+      <c r="C11" s="6">
+        <v>999</v>
+      </c>
+      <c r="D11" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6"/>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="5">
-        <v>999</v>
-      </c>
-      <c r="C12" s="5">
-        <v>999</v>
-      </c>
-      <c r="D12" t="s" s="5">
+      <c r="B12" s="6">
+        <v>999</v>
+      </c>
+      <c r="C12" s="6">
+        <v>999</v>
+      </c>
+      <c r="D12" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6"/>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="3.35156" style="9" customWidth="1"/>
+    <col min="2" max="2" width="7.17188" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.17188" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="9" customWidth="1"/>
+    <col min="5" max="5" width="5.17188" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.8516" style="9" customWidth="1"/>
+    <col min="7" max="256" width="12" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="14.95" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="5">
+        <f t="shared" si="0" ref="A3:A14">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>999</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>999</v>
+      </c>
+      <c r="D4" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>999</v>
+      </c>
+      <c r="D5" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>999</v>
+      </c>
+      <c r="D6" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>999</v>
+      </c>
+      <c r="D7" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>999</v>
+      </c>
+      <c r="D8" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>999</v>
+      </c>
+      <c r="D9" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>999</v>
+      </c>
+      <c r="D10" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>999</v>
+      </c>
+      <c r="C11" s="6">
+        <v>999</v>
+      </c>
+      <c r="D11" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>999</v>
+      </c>
+      <c r="C12" s="6">
+        <v>999</v>
+      </c>
+      <c r="D12" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>999</v>
+      </c>
+      <c r="C13" s="6">
+        <v>999</v>
+      </c>
+      <c r="D13" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="E13" s="8">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>999</v>
+      </c>
+      <c r="C14" s="6">
+        <v>999</v>
+      </c>
+      <c r="D14" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="E14" s="8">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s" s="7">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
